--- a/单词分类及助记符_符号表设计.xlsx
+++ b/单词分类及助记符_符号表设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,14 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMSY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,22 +357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字符串缺少“</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不等于缺少=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标识符后缺少，或；或[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量变量函数声明顺序出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无主函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -390,10 +370,6 @@
   </si>
   <si>
     <t>{}未配对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不合法的字符串字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -764,6 +740,136 @@
   </si>
   <si>
     <t>函数结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>标识符</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后缺少，或；或[</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串缺少“或出现了不合法字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少函数名或main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少类型标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少等号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少单字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8函数无返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主函数返回值不为void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法赋值语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法比较字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少while关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少：G29:G34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合法操作符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,15 +1300,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1236,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1253,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1270,7 +1377,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,7 +1394,7 @@
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1304,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1338,7 +1445,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,7 +1462,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1389,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1406,12 +1513,12 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
@@ -1423,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,7 +1547,7 @@
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,7 +1555,7 @@
         <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
@@ -1457,15 +1564,15 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
@@ -1474,15 +1581,15 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
@@ -1491,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,7 +1606,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
@@ -1508,7 +1615,7 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1516,7 +1623,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2">
         <v>18</v>
@@ -1524,8 +1631,8 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>99</v>
+      <c r="G19" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1533,7 +1640,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2">
         <v>19</v>
@@ -1542,7 +1649,7 @@
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1550,7 +1657,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
@@ -1559,7 +1666,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1567,7 +1674,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2">
         <v>21</v>
@@ -1576,7 +1683,7 @@
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1584,7 +1691,7 @@
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2">
         <v>22</v>
@@ -1593,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1601,7 +1708,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
         <v>23</v>
@@ -1610,7 +1717,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1618,7 +1725,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>24</v>
@@ -1627,7 +1734,7 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1635,13 +1742,16 @@
         <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2">
         <v>25</v>
       </c>
       <c r="F26">
         <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1649,13 +1759,16 @@
         <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2">
         <v>26</v>
       </c>
       <c r="F27">
         <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1663,7 +1776,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2">
         <v>27</v>
@@ -1671,16 +1784,25 @@
       <c r="F28">
         <v>27</v>
       </c>
+      <c r="G28" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2">
         <v>28</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1688,10 +1810,16 @@
         <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2">
         <v>29</v>
+      </c>
+      <c r="F30">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1699,9 +1827,12 @@
         <v>40</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="F31">
         <v>30</v>
       </c>
     </row>
@@ -1710,552 +1841,617 @@
         <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>0</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="I43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="I45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>3</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="I46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>4</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>5</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="I48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>6</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="I49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>8</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>9</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>10</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>11</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>12</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>13</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>14</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>15</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>16</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>17</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>18</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>19</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>20</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>21</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2263,19 +2459,19 @@
         <v>22</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2283,19 +2479,19 @@
         <v>23</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2303,19 +2499,19 @@
         <v>24</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2323,19 +2519,19 @@
         <v>25</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
@@ -2343,19 +2539,19 @@
         <v>26</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
@@ -2363,13 +2559,13 @@
         <v>27</v>
       </c>
       <c r="B70" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2377,13 +2573,13 @@
         <v>28</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,7 +2589,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/单词分类及助记符_符号表设计.xlsx
+++ b/单词分类及助记符_符号表设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="299">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,6 +870,376 @@
   </si>
   <si>
     <t>不合法操作符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重定义标识符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序表溢出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量定义，num为常量的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形参定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实参入栈（在符号表生成t_para,保存实参的值）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用有返回值的函数，返回值为符号表中的V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用无返回值的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op1</t>
+  </si>
+  <si>
+    <t>op1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op2</t>
+  </si>
+  <si>
+    <t>op2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name=op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASNAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[index]=op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V=name[op]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name/labelname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数定义/标签生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JBE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于等于跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小于等于跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不等于跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无条件跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNEI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case中的整数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case1中的字符值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case整数不等跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case字符不等跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCANF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRINTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string(可为空)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读值入name（scanf(name)）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>printf(string,name）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RETURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return(name)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSTART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志函数开始，便于生成代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志函数结束，便与生成代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_para</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用函数时参数个数不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数本无返回值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +1322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -985,6 +1355,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1300,19 +1673,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1322,14 +1697,14 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1339,14 +1714,14 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1356,14 +1731,14 @@
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,14 +1748,14 @@
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1390,14 +1765,14 @@
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1407,14 +1782,14 @@
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1424,14 +1799,14 @@
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1441,14 +1816,14 @@
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1458,14 +1833,14 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1475,14 +1850,14 @@
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1492,14 +1867,14 @@
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1509,14 +1884,14 @@
       <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>77</v>
       </c>
@@ -1526,14 +1901,14 @@
       <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1543,14 +1918,14 @@
       <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1560,14 +1935,14 @@
       <c r="C15" s="2">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>182</v>
       </c>
@@ -1577,14 +1952,14 @@
       <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>183</v>
       </c>
@@ -1594,14 +1969,14 @@
       <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1611,14 +1986,14 @@
       <c r="C18" s="3">
         <v>17</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1628,14 +2003,14 @@
       <c r="C19" s="2">
         <v>18</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1645,14 +2020,14 @@
       <c r="C20" s="2">
         <v>19</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1662,14 +2037,14 @@
       <c r="C21" s="2">
         <v>20</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>20</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
@@ -1679,14 +2054,14 @@
       <c r="C22" s="2">
         <v>21</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>21</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1696,14 +2071,14 @@
       <c r="C23" s="2">
         <v>22</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1713,14 +2088,14 @@
       <c r="C24" s="2">
         <v>23</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>23</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -1730,14 +2105,14 @@
       <c r="C25" s="2">
         <v>24</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
@@ -1747,14 +2122,14 @@
       <c r="C26" s="2">
         <v>25</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>37</v>
       </c>
@@ -1764,14 +2139,14 @@
       <c r="C27" s="2">
         <v>26</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1781,14 +2156,14 @@
       <c r="C28" s="2">
         <v>27</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>27</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1798,14 +2173,14 @@
       <c r="C29" s="2">
         <v>28</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>28</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
@@ -1815,14 +2190,14 @@
       <c r="C30" s="2">
         <v>29</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>29</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1832,11 +2207,14 @@
       <c r="C31" s="2">
         <v>30</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -1846,11 +2224,14 @@
       <c r="C32" s="2">
         <v>31</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1860,14 +2241,17 @@
       <c r="C33" s="2">
         <v>32</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>32</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
+        <v>296</v>
+      </c>
+      <c r="L33" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -1877,14 +2261,17 @@
       <c r="C34" s="2">
         <v>33</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>33</v>
       </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
+        <v>297</v>
+      </c>
+      <c r="L34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -1894,11 +2281,17 @@
       <c r="C35" s="2">
         <v>34</v>
       </c>
-      <c r="I35" t="s">
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>54</v>
       </c>
@@ -1908,11 +2301,14 @@
       <c r="C36" s="2">
         <v>35</v>
       </c>
-      <c r="I36" t="s">
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1922,11 +2318,14 @@
       <c r="C37" s="2">
         <v>36</v>
       </c>
-      <c r="I37" t="s">
+      <c r="G37">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -1936,11 +2335,14 @@
       <c r="C38" s="2">
         <v>37</v>
       </c>
-      <c r="I38" t="s">
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -1950,11 +2352,14 @@
       <c r="C39" s="2">
         <v>38</v>
       </c>
-      <c r="I39" t="s">
+      <c r="G39">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
@@ -1964,16 +2369,22 @@
       <c r="C40" s="2">
         <v>39</v>
       </c>
-      <c r="I40" t="s">
+      <c r="G40">
+        <v>39</v>
+      </c>
+      <c r="L40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>40</v>
+      </c>
+      <c r="L41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
@@ -1992,11 +2403,14 @@
       <c r="F42" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I42" t="s">
+      <c r="G42">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>0</v>
       </c>
@@ -2015,11 +2429,14 @@
       <c r="F43" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I43" t="s">
+      <c r="G43">
+        <v>42</v>
+      </c>
+      <c r="L43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>1</v>
       </c>
@@ -2038,11 +2455,14 @@
       <c r="F44" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2</v>
       </c>
@@ -2061,11 +2481,14 @@
       <c r="F45" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I45" t="s">
+      <c r="G45">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>3</v>
       </c>
@@ -2084,11 +2507,14 @@
       <c r="F46" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I46" t="s">
+      <c r="G46">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>4</v>
       </c>
@@ -2107,11 +2533,14 @@
       <c r="F47" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I47" t="s">
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>5</v>
       </c>
@@ -2130,11 +2559,14 @@
       <c r="F48" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="I48" t="s">
+      <c r="G48">
+        <v>47</v>
+      </c>
+      <c r="L48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>6</v>
       </c>
@@ -2153,11 +2585,14 @@
       <c r="F49" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I49" t="s">
+      <c r="G49">
+        <v>48</v>
+      </c>
+      <c r="L49" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>7</v>
       </c>
@@ -2176,11 +2611,14 @@
       <c r="F50" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="I50" t="s">
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="L50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>8</v>
       </c>
@@ -2199,8 +2637,11 @@
       <c r="F51" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>9</v>
       </c>
@@ -2219,8 +2660,11 @@
       <c r="F52" s="7" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>10</v>
       </c>
@@ -2239,8 +2683,11 @@
       <c r="F53" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>11</v>
       </c>
@@ -2259,8 +2706,11 @@
       <c r="F54" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>12</v>
       </c>
@@ -2279,8 +2729,11 @@
       <c r="F55" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>13</v>
       </c>
@@ -2299,8 +2752,11 @@
       <c r="F56" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>14</v>
       </c>
@@ -2319,8 +2775,11 @@
       <c r="F57" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>15</v>
       </c>
@@ -2339,8 +2798,11 @@
       <c r="F58" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>16</v>
       </c>
@@ -2359,8 +2821,11 @@
       <c r="F59" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>17</v>
       </c>
@@ -2379,8 +2844,11 @@
       <c r="F60" s="7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>18</v>
       </c>
@@ -2399,8 +2867,11 @@
       <c r="F61" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>19</v>
       </c>
@@ -2419,8 +2890,11 @@
       <c r="F62" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>20</v>
       </c>
@@ -2440,7 +2914,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>21</v>
       </c>
@@ -2590,6 +3064,534 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" t="s">
+        <v>258</v>
+      </c>
+      <c r="F79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" t="s">
+        <v>211</v>
+      </c>
+      <c r="F80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" t="s">
+        <v>295</v>
+      </c>
+      <c r="F81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" t="s">
+        <v>229</v>
+      </c>
+      <c r="F82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C83" t="s">
+        <v>227</v>
+      </c>
+      <c r="F83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" t="s">
+        <v>229</v>
+      </c>
+      <c r="F84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" t="s">
+        <v>239</v>
+      </c>
+      <c r="E85" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" t="s">
+        <v>242</v>
+      </c>
+      <c r="F86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>11</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" t="s">
+        <v>236</v>
+      </c>
+      <c r="E87" t="s">
+        <v>229</v>
+      </c>
+      <c r="F87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>12</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>250</v>
+      </c>
+      <c r="E88" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>13</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89" t="s">
+        <v>211</v>
+      </c>
+      <c r="F89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" t="s">
+        <v>254</v>
+      </c>
+      <c r="E90" t="s">
+        <v>211</v>
+      </c>
+      <c r="F90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>15</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" t="s">
+        <v>267</v>
+      </c>
+      <c r="F91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" t="s">
+        <v>237</v>
+      </c>
+      <c r="D92" t="s">
+        <v>260</v>
+      </c>
+      <c r="E92" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>17</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E93" t="s">
+        <v>267</v>
+      </c>
+      <c r="F93" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>18</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" t="s">
+        <v>234</v>
+      </c>
+      <c r="E94" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>19</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" t="s">
+        <v>232</v>
+      </c>
+      <c r="D95" t="s">
+        <v>234</v>
+      </c>
+      <c r="E95" t="s">
+        <v>267</v>
+      </c>
+      <c r="F95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>20</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" t="s">
+        <v>234</v>
+      </c>
+      <c r="E96" t="s">
+        <v>267</v>
+      </c>
+      <c r="F96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>21</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" t="s">
+        <v>267</v>
+      </c>
+      <c r="F97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>22</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>237</v>
+      </c>
+      <c r="D98" t="s">
+        <v>278</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="F98" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>23</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>237</v>
+      </c>
+      <c r="D99" t="s">
+        <v>279</v>
+      </c>
+      <c r="E99" t="s">
+        <v>268</v>
+      </c>
+      <c r="F99" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>24</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100" t="s">
+        <v>227</v>
+      </c>
+      <c r="F100" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>25</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" t="s">
+        <v>227</v>
+      </c>
+      <c r="F101" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>26</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E102" t="s">
+        <v>289</v>
+      </c>
+      <c r="F102" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>27</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>28</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F104" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/单词分类及助记符_符号表设计.xlsx
+++ b/单词分类及助记符_符号表设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="300">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1231,15 +1231,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>函数不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调用函数时参数个数不匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>函数本无返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识符在符号表中不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量不可被再次赋值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1675,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2249,7 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
         <v>202</v>
@@ -2265,7 +2269,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s">
         <v>84</v>
@@ -2285,7 +2289,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s">
         <v>100</v>
@@ -2304,6 +2308,9 @@
       <c r="G36">
         <v>35</v>
       </c>
+      <c r="H36" t="s">
+        <v>299</v>
+      </c>
       <c r="L36" t="s">
         <v>85</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>7</v>
       </c>
@@ -2618,7 +2625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>8</v>
       </c>
@@ -2641,7 +2648,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>9</v>
       </c>
@@ -2687,7 +2694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>11</v>
       </c>
@@ -2871,7 +2878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>19</v>
       </c>
@@ -2894,7 +2901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>20</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>27</v>
       </c>

--- a/单词分类及助记符_符号表设计.xlsx
+++ b/单词分类及助记符_符号表设计.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="339">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,10 +769,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>缺少类型标识符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>缺少标识符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1245,6 +1241,170 @@
   <si>
     <t>常量不可被再次赋值</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少类型标识符或者常变量定义错位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>加载字</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>取地址</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>存储字节</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>符号加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDI </t>
+  </si>
+  <si>
+    <t>立即数加</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>符号减</t>
+  </si>
+  <si>
+    <t>MULT</t>
+  </si>
+  <si>
+    <t>符号乘</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>符号除</t>
+  </si>
+  <si>
+    <t>BEQ</t>
+  </si>
+  <si>
+    <t>等于转移</t>
+  </si>
+  <si>
+    <t>BNE</t>
+  </si>
+  <si>
+    <t>不等转移</t>
+  </si>
+  <si>
+    <t>BLEZ</t>
+  </si>
+  <si>
+    <t>小于等于零时转移</t>
+  </si>
+  <si>
+    <t>BGTZ</t>
+  </si>
+  <si>
+    <t>大于零转移</t>
+  </si>
+  <si>
+    <t>BLTZ</t>
+  </si>
+  <si>
+    <t>小于零转移</t>
+  </si>
+  <si>
+    <t>BGEZ</t>
+  </si>
+  <si>
+    <t>大于等于零转移</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR </t>
+  </si>
+  <si>
+    <t>跳转至寄存器中的存储地址</t>
+  </si>
+  <si>
+    <t>JAR</t>
+  </si>
+  <si>
+    <t>跳转并链接</t>
+  </si>
+  <si>
+    <t>MFHI</t>
+  </si>
+  <si>
+    <t>MFLO</t>
+  </si>
+  <si>
+    <r>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寄存器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寄存器</t>
+    </r>
+  </si>
+  <si>
+    <t>SYSCALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  系统调用</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1362,6 +1522,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1679,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67:J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,7 +2007,7 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,7 +2024,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1875,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1892,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1909,7 +2075,7 @@
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1926,7 +2092,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1943,12 +2109,12 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>63</v>
@@ -1960,12 +2126,12 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>64</v>
@@ -1977,7 +2143,7 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,7 +2160,7 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,7 +2177,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2028,7 +2194,7 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2045,7 +2211,7 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2062,7 +2228,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2079,7 +2245,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2130,7 +2296,7 @@
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,7 +2313,7 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2164,7 +2330,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2181,7 +2347,7 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2198,7 +2364,7 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2215,7 +2381,7 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2232,7 +2398,7 @@
         <v>31</v>
       </c>
       <c r="H32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2249,10 +2415,10 @@
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2269,7 +2435,7 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
         <v>84</v>
@@ -2289,7 +2455,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
         <v>100</v>
@@ -2309,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="H36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
         <v>85</v>
@@ -2935,7 +3101,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>22</v>
       </c>
@@ -2955,7 +3121,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>23</v>
       </c>
@@ -2975,7 +3141,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>24</v>
       </c>
@@ -2994,8 +3160,14 @@
       <c r="F67" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I67" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>25</v>
       </c>
@@ -3014,8 +3186,14 @@
       <c r="F68" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I68" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>26</v>
       </c>
@@ -3034,8 +3212,14 @@
       <c r="F69" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I69" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>27</v>
       </c>
@@ -3048,8 +3232,14 @@
       <c r="F70" s="10" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I70" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>28</v>
       </c>
@@ -3062,18 +3252,44 @@
       <c r="F71" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I71" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I72" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I73" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="I74" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>101</v>
       </c>
@@ -3087,397 +3303,469 @@
         <v>103</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I75" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
         <v>208</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>209</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>210</v>
       </c>
-      <c r="E76" t="s">
-        <v>211</v>
-      </c>
       <c r="F76" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E79" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" t="s">
         <v>258</v>
       </c>
-      <c r="F79" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I79" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" t="s">
         <v>221</v>
       </c>
-      <c r="C80" t="s">
+      <c r="E80" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" t="s">
         <v>222</v>
       </c>
-      <c r="E80" t="s">
-        <v>211</v>
-      </c>
-      <c r="F80" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I80" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5</v>
       </c>
       <c r="B81" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E81" t="s">
+        <v>294</v>
+      </c>
+      <c r="F81" t="s">
         <v>224</v>
       </c>
-      <c r="E81" t="s">
-        <v>295</v>
-      </c>
-      <c r="F81" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I81" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" t="s">
         <v>226</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" t="s">
         <v>227</v>
       </c>
-      <c r="E82" t="s">
-        <v>229</v>
-      </c>
-      <c r="F82" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I82" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>7</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" t="s">
         <v>230</v>
       </c>
-      <c r="C83" t="s">
-        <v>227</v>
-      </c>
-      <c r="F83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I83" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" t="s">
         <v>237</v>
       </c>
-      <c r="D84" t="s">
-        <v>235</v>
-      </c>
-      <c r="E84" t="s">
-        <v>229</v>
-      </c>
-      <c r="F84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I84" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>9</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D85" t="s">
+        <v>238</v>
+      </c>
+      <c r="E85" t="s">
         <v>239</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>240</v>
       </c>
-      <c r="F85" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I85" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E86" t="s">
+        <v>241</v>
+      </c>
+      <c r="F86" t="s">
         <v>242</v>
       </c>
-      <c r="F86" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I86" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="J86" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F87" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
       <c r="B88" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C88" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" t="s">
+        <v>249</v>
+      </c>
+      <c r="E88" t="s">
+        <v>228</v>
+      </c>
+      <c r="F88" t="s">
         <v>256</v>
       </c>
-      <c r="C88" t="s">
-        <v>211</v>
-      </c>
-      <c r="D88" t="s">
-        <v>250</v>
-      </c>
-      <c r="E88" t="s">
-        <v>229</v>
-      </c>
-      <c r="F88" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13</v>
       </c>
       <c r="B89" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" t="s">
         <v>249</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
+        <v>210</v>
+      </c>
+      <c r="F89" t="s">
         <v>250</v>
       </c>
-      <c r="E89" t="s">
-        <v>211</v>
-      </c>
-      <c r="F89" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C90" t="s">
         <v>252</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>253</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" t="s">
         <v>254</v>
       </c>
-      <c r="E90" t="s">
-        <v>211</v>
-      </c>
-      <c r="F90" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>15</v>
       </c>
       <c r="B91" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" t="s">
+        <v>232</v>
+      </c>
+      <c r="D91" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" t="s">
         <v>262</v>
       </c>
-      <c r="C91" t="s">
-        <v>233</v>
-      </c>
-      <c r="D91" t="s">
-        <v>236</v>
-      </c>
-      <c r="E91" t="s">
-        <v>267</v>
-      </c>
-      <c r="F91" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>16</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F92" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>17</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C93" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D93" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F93" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>18</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" t="s">
+        <v>233</v>
+      </c>
+      <c r="E94" t="s">
         <v>266</v>
       </c>
-      <c r="C94" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" t="s">
-        <v>234</v>
-      </c>
-      <c r="E94" t="s">
-        <v>267</v>
-      </c>
       <c r="F94" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>19</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D95" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F95" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20</v>
       </c>
       <c r="B96" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" t="s">
+        <v>233</v>
+      </c>
+      <c r="E96" t="s">
+        <v>266</v>
+      </c>
+      <c r="F96" t="s">
         <v>272</v>
-      </c>
-      <c r="C96" t="s">
-        <v>232</v>
-      </c>
-      <c r="D96" t="s">
-        <v>234</v>
-      </c>
-      <c r="E96" t="s">
-        <v>267</v>
-      </c>
-      <c r="F96" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,13 +3773,13 @@
         <v>21</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3499,19 +3787,19 @@
         <v>22</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F98" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,19 +3807,19 @@
         <v>23</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,13 +3827,13 @@
         <v>24</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F100" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3553,16 +3841,16 @@
         <v>25</v>
       </c>
       <c r="B101" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" t="s">
         <v>284</v>
       </c>
-      <c r="C101" t="s">
-        <v>285</v>
-      </c>
       <c r="D101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3570,13 +3858,13 @@
         <v>26</v>
       </c>
       <c r="B102" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E102" t="s">
         <v>288</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>289</v>
-      </c>
-      <c r="F102" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,10 +3872,10 @@
         <v>27</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F103" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,10 +3883,10 @@
         <v>28</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F104" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
